--- a/data/trans_dic/P25A$rendimiento-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P25A$rendimiento-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -685,47 +686,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 41,71</t>
+          <t>0,0; 41,16</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 33,92</t>
+          <t>0,0; 35,68</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 43,58</t>
+          <t>0,0; 43,97</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 29,44</t>
+          <t>0,0; 26,15</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 41,73</t>
+          <t>0,0; 39,83</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 25,0</t>
+          <t>0,0; 30,08</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 23,15</t>
+          <t>0,0; 22,33</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>2,57; 29,1</t>
+          <t>2,49; 25,34</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 28,43</t>
+          <t>0,0; 23,35</t>
         </is>
       </c>
     </row>
@@ -795,17 +796,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 12,8</t>
+          <t>0,0; 12,56</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>2,43; 13,93</t>
+          <t>2,44; 13,36</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>2,06; 21,55</t>
+          <t>2,54; 20,17</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -820,22 +821,22 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>3,14; 17,31</t>
+          <t>3,15; 17,37</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,56</t>
+          <t>0,0; 4,52</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>1,16; 6,52</t>
+          <t>0,66; 6,32</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>3,78; 14,57</t>
+          <t>3,78; 14,51</t>
         </is>
       </c>
     </row>
@@ -905,47 +906,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1,19; 9,85</t>
+          <t>1,18; 10,35</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,81; 6,93</t>
+          <t>0,8; 6,79</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 10,09</t>
+          <t>0,0; 10,68</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>1,46; 14,59</t>
+          <t>1,45; 13,61</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>1,77; 9,76</t>
+          <t>1,55; 10,53</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 8,2</t>
+          <t>0,0; 8,15</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>1,94; 9,32</t>
+          <t>2,05; 9,01</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>1,64; 6,78</t>
+          <t>1,57; 6,36</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0,71; 6,21</t>
+          <t>0,7; 6,48</t>
         </is>
       </c>
     </row>
@@ -1020,42 +1021,42 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>1,26; 7,25</t>
+          <t>1,33; 8,15</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,89; 7,63</t>
+          <t>0,91; 8,54</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>4,76; 22,04</t>
+          <t>4,9; 21,85</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>1,21; 11,29</t>
+          <t>1,14; 10,89</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>2,26; 12,02</t>
+          <t>2,27; 12,36</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>1,56; 7,2</t>
+          <t>1,64; 7,62</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>1,64; 6,67</t>
+          <t>1,91; 7,26</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>2,11; 7,89</t>
+          <t>2,05; 8,49</t>
         </is>
       </c>
     </row>
@@ -1125,47 +1126,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>1,61; 9,66</t>
+          <t>1,63; 9,8</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,74; 6,87</t>
+          <t>0,76; 6,72</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>2,18; 12,36</t>
+          <t>2,48; 11,62</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 20,72</t>
+          <t>0,0; 26,33</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 10,06</t>
+          <t>0,0; 10,99</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 11,63</t>
+          <t>0,0; 13,08</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>1,98; 8,87</t>
+          <t>1,93; 9,09</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0,98; 5,95</t>
+          <t>0,63; 6,26</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>2,29; 9,7</t>
+          <t>2,57; 9,5</t>
         </is>
       </c>
     </row>
@@ -1235,17 +1236,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>2,1; 9,77</t>
+          <t>2,12; 9,25</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>1,89; 9,7</t>
+          <t>2,42; 10,33</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>2,29; 10,7</t>
+          <t>2,32; 10,95</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1260,22 +1261,22 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 19,93</t>
+          <t>0,0; 16,68</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>1,42; 8,02</t>
+          <t>1,94; 8,88</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>2,28; 9,19</t>
+          <t>2,22; 9,66</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>2,51; 9,38</t>
+          <t>2,53; 9,82</t>
         </is>
       </c>
     </row>
@@ -1345,17 +1346,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0,76; 7,21</t>
+          <t>0,77; 7,48</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0,63; 5,92</t>
+          <t>0,65; 6,73</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>2,17; 10,63</t>
+          <t>2,2; 11,23</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
@@ -1375,17 +1376,17 @@
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>0,69; 6,73</t>
+          <t>0,7; 7,02</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>0,61; 5,67</t>
+          <t>0,62; 5,16</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>1,6; 9,47</t>
+          <t>1,99; 10,1</t>
         </is>
       </c>
     </row>
@@ -1455,47 +1456,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>2,09; 4,81</t>
+          <t>2,1; 4,88</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>2,63; 5,33</t>
+          <t>2,44; 5,24</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>3,42; 7,01</t>
+          <t>3,62; 7,42</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>2,81; 8,19</t>
+          <t>2,93; 8,42</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>1,87; 5,98</t>
+          <t>1,78; 5,66</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>2,92; 7,62</t>
+          <t>2,86; 7,45</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>2,61; 5,1</t>
+          <t>2,66; 5,01</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>2,64; 4,93</t>
+          <t>2,56; 4,84</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>3,63; 6,53</t>
+          <t>3,75; 6,54</t>
         </is>
       </c>
     </row>
@@ -1523,4 +1524,1455 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población cuyo motivo para dejar de fumar fue, al menos, la disminución del rendimiento</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16-24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>989</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>1880</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>1002</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>939</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>1790</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>1004</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>1928</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>3670</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>2006</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>0; 4646</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>0; 5988</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>0; 4154</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>0; 4038</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>0; 7658</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>0; 4963</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>0; 5970</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>897; 9125</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>0; 6057</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>989</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>4690</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>4183</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>4638</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>989</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>4690</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>8821</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>0; 4955</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>1776; 9717</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>1234; 9801</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>0; 1973</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>0; 2009</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>1829; 10072</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>0; 4950</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>1024; 9828</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>4031; 15457</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>3114</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>2875</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>2283</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>3908</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>5402</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>2062</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>7022</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>8277</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>4345</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>1006; 8791</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>899; 7632</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>0; 7938</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>959; 9017</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>1927; 13071</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>0; 7164</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>3104; 13621</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>3722; 15031</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>1139; 10515</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>5803</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>3353</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>6928</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>4151</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>5197</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>6928</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>9953</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>8549</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>0; 2040</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>2267; 13852</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>986; 9244</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>2877; 12838</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>1043; 9972</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>2006; 10907</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>3014; 14044</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>4998; 18988</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>4023; 16681</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>5929</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>4056</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>7749</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>869</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>1045</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>2170</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>6798</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>5100</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>9919</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>2091; 12559</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>1068; 9426</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>3298; 15458</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>0; 4591</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>0; 5690</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>0; 7446</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>2815; 13232</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>1213; 12018</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>4875; 18044</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65-74</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>5521</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>7998</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>6708</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>1036</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>5521</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>7998</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>7744</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>2587; 11282</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>3941; 16786</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>2863; 13489</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>0; 1707</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>0; 1814</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>0; 4297</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>2622; 12033</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>3837; 16735</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>3766; 14637</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>75 o más</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>3440</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>3115</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>5107</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>3440</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>3115</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>5107</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>874; 8476</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>919; 9523</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>2396; 12211</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>0; 2147</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>0; 1693</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>0; 1420</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>854; 8599</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>916; 7631</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>2216; 11239</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="F25" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>19983</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>30416</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>30384</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="inlineStr">
+        <is>
+          <t>12643</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="inlineStr">
+        <is>
+          <t>12387</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
+          <t>16107</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>32626</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>42803</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>46491</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>13128; 30466</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>19923; 42768</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>21916; 44924</t>
+        </is>
+      </c>
+      <c r="F27" s="2" t="inlineStr">
+        <is>
+          <t>7348; 21121</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="inlineStr">
+        <is>
+          <t>6864; 21879</t>
+        </is>
+      </c>
+      <c r="H27" s="2" t="inlineStr">
+        <is>
+          <t>9618; 25014</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>23317; 43831</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>30754; 58175</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>35259; 61580</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>